--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_misex1_241.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_misex1_241.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2177"/>
+  <dimension ref="A1:N2178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.7589271068573</v>
+        <v>2.979694128036499</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006227970123291016</v>
+        <v>0.009686946868896484</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.424058198928833</v>
+        <v>0.598905086517334</v>
       </c>
     </row>
     <row r="8">
@@ -15773,7 +15773,7 @@
         </is>
       </c>
       <c r="B2171" t="n">
-        <v>2.537262534942746e-05</v>
+        <v>2.53643044930079e-05</v>
       </c>
     </row>
     <row r="2172">
@@ -15783,116 +15783,126 @@
         </is>
       </c>
       <c r="B2172" t="n">
-        <v>83252.81674048409</v>
+        <v>83744.81674048411</v>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B2173" t="n">
-        <v>56</v>
+        <v>0.9965453226553098</v>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B2174" t="n">
-        <v>1936</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B2175" t="n">
-        <v>7</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B2176" t="n">
-        <v>3.286390066146851</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B2177" t="n">
+        <v>3.778272867202759</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B2177" t="inlineStr">
+      <c r="B2178" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C2177" t="inlineStr">
+      <c r="C2178" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D2177" t="inlineStr">
+      <c r="D2178" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E2177" t="inlineStr">
+      <c r="E2178" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F2177" t="inlineStr">
+      <c r="F2178" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2177" t="inlineStr">
+      <c r="G2178" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H2177" t="inlineStr">
+      <c r="H2178" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I2177" t="inlineStr">
+      <c r="I2178" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J2177" t="inlineStr">
+      <c r="J2178" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K2177" t="inlineStr">
+      <c r="K2178" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L2177" t="inlineStr">
+      <c r="L2178" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M2177" t="inlineStr">
+      <c r="M2178" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N2177" t="inlineStr">
+      <c r="N2178" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_misex1_241.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_misex1_241.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.979694128036499</v>
+        <v>0.002115964889526367</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009686946868896484</v>
+        <v>0.0006787776947021484</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.598905086517334</v>
+        <v>0.3951349258422852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 2), (1, 3), (1, 0), (0, 0), (0, 2), (2, 3), (0, 1), (2, 0), (0, 3), (3, 1), (1, 1), (1, 2), (2, 1), (3, 2), (3, 0)]</t>
+          <t>[[2, 2], [1, 3], [1, 0], [0, 0], [0, 2], [2, 3], [0, 1], [2, 0], [0, 3], [3, 1], [1, 1], [1, 2], [2, 1], [3, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[(2, 3), (2, 1), (1, 3), (3, 1), (0, 3), (1, 0), (2, 0), (3, 0), (3, 2), (0, 2), (2, 2), (1, 1), (1, 2), (0, 1), (0, 0)]</t>
+          <t>[[2, 3], [2, 1], [1, 3], [3, 1], [0, 3], [1, 0], [2, 0], [3, 0], [3, 2], [0, 2], [2, 2], [1, 1], [1, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>[(0, 2), (3, 2), (0, 3), (1, 3), (2, 3), (1, 1), (0, 0), (3, 0), (1, 0), (2, 2), (1, 2), (0, 1), (2, 1), (2, 0), (3, 1)]</t>
+          <t>[[0, 2], [3, 2], [0, 3], [1, 3], [2, 3], [1, 1], [0, 0], [3, 0], [1, 0], [2, 2], [1, 2], [0, 1], [2, 1], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 3), (3, 2), (1, 0), (0, 1), (2, 3), (0, 0), (3, 0), (3, 1), (2, 0), (0, 3), (1, 1), (1, 2), (0, 2), (2, 2)]</t>
+          <t>[[2, 1], [1, 3], [3, 2], [1, 0], [0, 1], [2, 3], [0, 0], [3, 0], [3, 1], [2, 0], [0, 3], [1, 1], [1, 2], [0, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 1), (1, 3), (0, 0), (1, 0), (0, 1), (3, 2), (2, 3), (3, 1), (2, 0), (3, 0), (1, 1), (0, 3), (0, 2), (1, 2)]</t>
+          <t>[[2, 2], [2, 1], [1, 3], [0, 0], [1, 0], [0, 1], [3, 2], [2, 3], [3, 1], [2, 0], [3, 0], [1, 1], [0, 3], [0, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 1), (0, 3), (2, 3), (1, 3), (2, 0), (3, 0), (0, 1), (1, 1), (1, 2), (2, 2), (2, 1), (0, 2), (0, 0), (1, 0)]</t>
+          <t>[[3, 2], [3, 1], [0, 3], [2, 3], [1, 3], [2, 0], [3, 0], [0, 1], [1, 1], [1, 2], [2, 2], [2, 1], [0, 2], [0, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 1), (3, 3), (0, 1), (2, 0), (2, 3), (0, 3), (0, 0), (1, 2), (1, 0), (1, 1), (0, 2), (1, 3), (2, 1), (2, 2)]</t>
+          <t>[[3, 2], [3, 1], [3, 3], [0, 1], [2, 0], [2, 3], [0, 3], [0, 0], [1, 2], [1, 0], [1, 1], [0, 2], [1, 3], [2, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
         </is>
       </c>
       <c r="B2177" t="n">
-        <v>3.778272867202759</v>
+        <v>0.4971327781677246</v>
       </c>
     </row>
     <row r="2178">
